--- a/DataGenerator/XLSXS/SkillDamageData.xlsx
+++ b/DataGenerator/XLSXS/SkillDamageData.xlsx
@@ -1,24 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6E252-900B-4F64-9873-F8AC5AC1DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-555" yWindow="2528" windowWidth="18668" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="SkillRange" sheetId="1" r:id="rId4"/>
+    <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C1">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -26,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>스킬 데미지ID</t>
   </si>
@@ -167,22 +184,40 @@
   </si>
   <si>
     <t>floor</t>
+  </si>
+  <si>
+    <t>#눈속임(대미지 없음)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -190,7 +225,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -206,50 +241,55 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -439,24 +479,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -505,11 +550,11 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
@@ -519,7 +564,7 @@
       <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -556,18 +601,18 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="2"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -591,45 +636,45 @@
       <c r="L3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>1.0030001E7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1.0020001E7</v>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>10030001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10020001</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="G4" s="4">
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
         <v>0.9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="2">
         <v>1.2</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -638,7 +683,7 @@
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="2">
         <v>1.5</v>
       </c>
       <c r="L4" s="1"/>
@@ -650,29 +695,29 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5">
-      <c r="A5" s="4">
-        <v>1.0060001E7</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1.0050001E7</v>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>10060001</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10050001</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>0.8</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0.9</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>1.2</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -681,7 +726,7 @@
       <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>1.5</v>
       </c>
       <c r="L5" s="1"/>
@@ -693,30 +738,30 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6">
-      <c r="A6" s="4">
-        <v>1.0030003E7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1.0020003E7</v>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>10030003</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10020003</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>0.8</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.0</v>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>40</v>
@@ -724,8 +769,8 @@
       <c r="J6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="4">
-        <v>1.0</v>
+      <c r="K6" s="2">
+        <v>1</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -733,30 +778,30 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7">
-      <c r="A7" s="4">
-        <v>3.0030001E7</v>
-      </c>
-      <c r="B7" s="4">
-        <v>3.0020001E7</v>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>30030001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30020001</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>0.6</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0.8</v>
       </c>
-      <c r="H7" s="4">
-        <v>1.0</v>
+      <c r="H7" s="2">
+        <v>1</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>46</v>
@@ -764,7 +809,7 @@
       <c r="J7" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="2">
         <v>1.5</v>
       </c>
       <c r="L7" s="1"/>
@@ -773,44 +818,52 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="1"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>10030002</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10020002</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>47</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="7"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="7"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/SkillDamageData.xlsx
+++ b/DataGenerator/XLSXS/SkillDamageData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E6E252-900B-4F64-9873-F8AC5AC1DB07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{90478F51-E9F8-481D-A2CB-20FA0EED72D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-555" yWindow="2528" windowWidth="18668" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>스킬 데미지ID</t>
   </si>
@@ -54,10 +54,7 @@
     <t>#설명</t>
   </si>
   <si>
-    <t>공격 스탯</t>
-  </si>
-  <si>
-    <t>방어 스탯</t>
+    <t>공격 방식</t>
   </si>
   <si>
     <t>대미지 계수</t>
@@ -99,13 +96,10 @@
     <t>#</t>
   </si>
   <si>
-    <t>AttackStat</t>
-  </si>
-  <si>
-    <t>DefenseStat</t>
-  </si>
-  <si>
-    <t>DamageCoefficient</t>
+    <t>SkillType</t>
+  </si>
+  <si>
+    <t>Damage Coefficient</t>
   </si>
   <si>
     <t>RandMin</t>
@@ -141,7 +135,7 @@
     <t>long</t>
   </si>
   <si>
-    <t>eStats</t>
+    <t>eSkillType</t>
   </si>
   <si>
     <t>float</t>
@@ -153,13 +147,13 @@
     <t>string</t>
   </si>
   <si>
+    <t>eStat</t>
+  </si>
+  <si>
     <t>#뭉게 구름</t>
   </si>
   <si>
-    <t>PHYSICAL_ATTACK</t>
-  </si>
-  <si>
-    <t>DEFENSE</t>
+    <t>PhysicalAttack</t>
   </si>
   <si>
     <t>ceil</t>
@@ -168,32 +162,47 @@
     <t>round</t>
   </si>
   <si>
+    <t>#퍼뜨리기</t>
+  </si>
+  <si>
+    <t>MagicAttack</t>
+  </si>
+  <si>
+    <t>#연기 사슬</t>
+  </si>
+  <si>
+    <t>#회오리</t>
+  </si>
+  <si>
+    <t>#청혈</t>
+  </si>
+  <si>
+    <t>Heal</t>
+  </si>
+  <si>
+    <t>#군호</t>
+  </si>
+  <si>
+    <t>#독침</t>
+  </si>
+  <si>
+    <t>#탐식</t>
+  </si>
+  <si>
+    <t>floor</t>
+  </si>
+  <si>
+    <t>#원령</t>
+  </si>
+  <si>
     <t>#반격</t>
-  </si>
-  <si>
-    <t>#퍼뜨리기</t>
-  </si>
-  <si>
-    <t>MAGIC_ATTACK</t>
-  </si>
-  <si>
-    <t>MAGIC_RESIST</t>
-  </si>
-  <si>
-    <t>#탐식</t>
-  </si>
-  <si>
-    <t>floor</t>
-  </si>
-  <si>
-    <t>#눈속임(대미지 없음)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -204,13 +213,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -220,24 +223,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
-        <bgColor rgb="FFFFE599"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD966"/>
-        <bgColor rgb="FFFFD966"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -252,24 +243,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,15 +467,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,149 +526,141 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>10030001</v>
+        <v>10102001</v>
       </c>
       <c r="B4" s="2">
-        <v>10020001</v>
+        <v>10101001</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="2">
+      <c r="J4" s="2">
         <v>1.5</v>
       </c>
+      <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -695,40 +670,38 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>10060001</v>
+        <v>10102004</v>
       </c>
       <c r="B5" s="2">
-        <v>10050001</v>
+        <v>10101004</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1.5</v>
-      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -738,132 +711,236 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>10030003</v>
+        <v>10102005</v>
       </c>
       <c r="B6" s="2">
-        <v>10020003</v>
+        <v>10101005</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>30030001</v>
+        <v>10102006</v>
       </c>
       <c r="B7" s="2">
-        <v>30020001</v>
+        <v>10101006</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1.5</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>10030002</v>
-      </c>
-      <c r="B8" s="6">
-        <v>10020002</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>20102001</v>
+      </c>
+      <c r="B8" s="2">
+        <v>20101001</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>20102002</v>
+      </c>
+      <c r="B9" s="2">
+        <v>20101002</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
     </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>20102004</v>
+      </c>
+      <c r="B10" s="2">
+        <v>20101004</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>30102001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>30101001</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>30102002</v>
+      </c>
+      <c r="B12" s="2">
+        <v>30101002</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>90102003</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10101003</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataGenerator/XLSXS/SkillDamageData.xlsx
+++ b/DataGenerator/XLSXS/SkillDamageData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90478F51-E9F8-481D-A2CB-20FA0EED72D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EBEFD8-A34D-43A7-B6AD-5264BBD773D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50" yWindow="510" windowWidth="19310" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
             <scheme val="minor"/>
           </rPr>
           <t>이 칼럼부터 공식 세워지면 노티 후 지울 것</t>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
   <si>
     <t>스킬 데미지ID</t>
   </si>
@@ -99,9 +100,6 @@
     <t>SkillType</t>
   </si>
   <si>
-    <t>Damage Coefficient</t>
-  </si>
-  <si>
     <t>RandMin</t>
   </si>
   <si>
@@ -147,9 +145,6 @@
     <t>string</t>
   </si>
   <si>
-    <t>eStat</t>
-  </si>
-  <si>
     <t>#뭉게 구름</t>
   </si>
   <si>
@@ -180,29 +175,102 @@
     <t>Heal</t>
   </si>
   <si>
-    <t>#군호</t>
-  </si>
-  <si>
-    <t>#독침</t>
-  </si>
-  <si>
-    <t>#탐식</t>
-  </si>
-  <si>
     <t>floor</t>
   </si>
   <si>
     <t>#원령</t>
   </si>
   <si>
-    <t>#반격</t>
+    <t>DamageCoefficient</t>
+  </si>
+  <si>
+    <t>eStats</t>
+  </si>
+  <si>
+    <t>#비명</t>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독침</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>산약</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>난타</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>탐식</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Debuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>round</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ceil</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -222,6 +290,27 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -231,7 +320,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -239,15 +328,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,63 +574,68 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.1796875" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="11" max="11" width="23.36328125" customWidth="1"/>
+    <col min="12" max="12" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="1"/>
@@ -531,396 +643,464 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>34</v>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>10102001</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>10101001</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1.2</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>1.5</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>10102004</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>10101004</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3">
         <v>0.8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>1</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>1</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="3">
         <v>1</v>
       </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>10102005</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>10101005</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>10102006</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10101006</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>20102001</v>
+      </c>
+      <c r="B8" s="3">
+        <v>20101001</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>10102006</v>
-      </c>
-      <c r="B7" s="2">
-        <v>10101006</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>20102001</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20101001</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="E8" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2">
         <v>0.5</v>
       </c>
       <c r="G8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>20102002</v>
+      </c>
+      <c r="B9" s="3">
+        <v>20101002</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>20102004</v>
+      </c>
+      <c r="B10" s="3">
+        <v>20101004</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>30102001</v>
+      </c>
+      <c r="B11" s="3">
+        <v>30101001</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="3">
         <v>1</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>20102002</v>
-      </c>
-      <c r="B9" s="2">
-        <v>20101002</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="H11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
+        <v>30102002</v>
+      </c>
+      <c r="B12" s="3">
+        <v>30101002</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>30102003</v>
+      </c>
+      <c r="B13" s="3">
+        <v>30101003</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>20102004</v>
-      </c>
-      <c r="B10" s="2">
-        <v>20101004</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>30102001</v>
-      </c>
-      <c r="B11" s="2">
-        <v>30101001</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2">
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2">
         <v>0.6</v>
-      </c>
-      <c r="F11" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="G11" s="2">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>30102002</v>
-      </c>
-      <c r="B12" s="2">
-        <v>30101002</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>90102003</v>
-      </c>
-      <c r="B13" s="2">
-        <v>10101003</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.8</v>
       </c>
       <c r="F13" s="2">
         <v>0.8</v>
@@ -928,15 +1108,125 @@
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1</v>
+      </c>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>30102004</v>
+      </c>
+      <c r="B14" s="3">
+        <v>30101004</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1.5</v>
-      </c>
+      <c r="E14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/DataGenerator/XLSXS/SkillDamageData.xlsx
+++ b/DataGenerator/XLSXS/SkillDamageData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jungs\Desktop\AngelBeat\DataGenerator\XLSXS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jehee\Documents\GitHub\AngelBeat\DataGenerator\XLSXS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37EBEFD8-A34D-43A7-B6AD-5264BBD773D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953DD503-DD10-43FA-AF65-E01D71B871FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50" yWindow="510" windowWidth="19310" windowHeight="9370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="11115" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillRange" sheetId="1" r:id="rId1"/>
@@ -347,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -355,6 +355,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,22 +580,21 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.1796875" customWidth="1"/>
-    <col min="6" max="6" width="17.08984375" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="11" max="11" width="23.36328125" customWidth="1"/>
-    <col min="12" max="12" width="17.1796875" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -643,7 +645,7 @@
       <c r="R1" s="1"/>
       <c r="S1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -692,7 +694,7 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -741,7 +743,7 @@
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10102001</v>
       </c>
@@ -782,12 +784,12 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>10102004</v>
-      </c>
-      <c r="B5" s="3">
-        <v>10101004</v>
+    <row r="5" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>10102003</v>
+      </c>
+      <c r="B5" s="4">
+        <v>10101003</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>37</v>
@@ -823,12 +825,12 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>10102005</v>
-      </c>
-      <c r="B6" s="3">
-        <v>10101005</v>
+    <row r="6" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>10102004</v>
+      </c>
+      <c r="B6" s="4">
+        <v>10101004</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>39</v>
@@ -861,12 +863,12 @@
       <c r="O6" s="2"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>10102006</v>
-      </c>
-      <c r="B7" s="3">
-        <v>10101006</v>
+    <row r="7" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>10102005</v>
+      </c>
+      <c r="B7" s="4">
+        <v>10101005</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>40</v>
@@ -899,7 +901,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>20102001</v>
       </c>
@@ -937,7 +939,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>20102002</v>
       </c>
@@ -975,7 +977,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>20102004</v>
       </c>
@@ -1012,7 +1014,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>30102001</v>
       </c>
@@ -1049,7 +1051,7 @@
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>30102002</v>
       </c>
@@ -1086,7 +1088,7 @@
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>30102003</v>
       </c>
@@ -1123,7 +1125,7 @@
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>30102004</v>
       </c>
@@ -1160,8 +1162,10 @@
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
+    <row r="15" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>0</v>
+      </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1177,7 +1181,7 @@
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1194,7 +1198,7 @@
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1211,7 +1215,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
